--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1425.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1425.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.775932799354861</v>
+        <v>0.7234810590744019</v>
       </c>
       <c r="B1">
-        <v>2.090511347853856</v>
+        <v>2.11238956451416</v>
       </c>
       <c r="C1">
-        <v>2.126293890444018</v>
+        <v>6.327485084533691</v>
       </c>
       <c r="D1">
-        <v>2.686355224916432</v>
+        <v>1.77379834651947</v>
       </c>
       <c r="E1">
-        <v>2.90743562259118</v>
+        <v>1.050476431846619</v>
       </c>
     </row>
   </sheetData>
